--- a/Multiscale-Accretion-Erosion-Paper/Raw Data/Chemistry_MATLAB.xlsx
+++ b/Multiscale-Accretion-Erosion-Paper/Raw Data/Chemistry_MATLAB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -266,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +298,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -348,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -374,6 +381,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,9 +726,9 @@
   <dimension ref="A1:AX64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3689,11 +3699,12 @@
       <c r="J42">
         <v>14</v>
       </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
       <c r="Q42">
         <v>2001.3400000000001</v>
       </c>
